--- a/data/outputs/management_elsevier/55.xlsx
+++ b/data/outputs/management_elsevier/55.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS50"/>
+  <dimension ref="A1:BU50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -939,6 +949,12 @@
           <t>2-s2.0-84940788391</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>5138</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1159,6 +1175,12 @@
         <is>
           <t>2-s2.0-84940794595</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>2536</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1367,6 +1389,12 @@
           <t>2-s2.0-84940792168</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2802</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1584,6 +1612,12 @@
           <t>2-s2.0-84940792675</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>5323</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1800,6 +1834,12 @@
         <is>
           <t>2-s2.0-84940790073</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>4086</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1996,6 +2036,12 @@
           <t>2-s2.0-84940796428</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1343</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2221,6 +2267,12 @@
           <t>2-s2.0-84937630633</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>9242</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2434,6 +2486,12 @@
           <t>2-s2.0-84937628095</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>18397</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2645,6 +2703,12 @@
           <t>2-s2.0-84937632496</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>19178</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2869,6 +2933,12 @@
         <is>
           <t>2-s2.0-84937629756</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>4465</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -3079,6 +3149,12 @@
           <t>2-s2.0-84937642377</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>5036</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3288,6 +3364,12 @@
           <t>2-s2.0-84937638034</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>5855</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3502,6 +3584,12 @@
         <is>
           <t>2-s2.0-84929624230</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>5374</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -3710,6 +3798,12 @@
           <t>2-s2.0-84929655330</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>2574</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3911,6 +4005,12 @@
           <t>2-s2.0-84929655200</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>12296</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4130,6 +4230,12 @@
           <t>2-s2.0-84929654801</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>4018</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4355,6 +4461,12 @@
           <t>2-s2.0-84929652896</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>23643</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4571,6 +4683,12 @@
         <is>
           <t>2-s2.0-84929621567</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>5316</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -4779,6 +4897,12 @@
           <t>2-s2.0-84929623417</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>3663</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4998,6 +5122,12 @@
           <t>2-s2.0-84929615675</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>5736</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5215,6 +5345,12 @@
           <t>2-s2.0-84929628377</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>5218</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5428,6 +5564,12 @@
           <t>2-s2.0-84925340063</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2840</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5645,6 +5787,12 @@
           <t>2-s2.0-84925295225</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>3948</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5860,6 +6008,12 @@
           <t>2-s2.0-84925304666</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>4284</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6071,6 +6225,12 @@
           <t>2-s2.0-84925334349</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>3788</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6286,6 +6446,12 @@
           <t>2-s2.0-84925303907</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>3688</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6504,6 +6670,12 @@
         <is>
           <t>2-s2.0-84925325638</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>2592</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -6714,6 +6886,12 @@
           <t>2-s2.0-84925281371</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>6022</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6931,6 +7109,12 @@
           <t>2-s2.0-84925299981</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>9259</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7154,6 +7338,12 @@
           <t>2-s2.0-84925214426</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>3817</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7377,6 +7567,12 @@
           <t>2-s2.0-84925110122</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>3795</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7590,6 +7786,12 @@
           <t>2-s2.0-84925155142</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>8731</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7802,6 +8004,12 @@
         <is>
           <t>2-s2.0-84925213776</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>4003</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -8014,6 +8222,12 @@
           <t>2-s2.0-84925035962</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>4624</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8230,6 +8444,12 @@
         <is>
           <t>2-s2.0-84925108575</t>
         </is>
+      </c>
+      <c r="BT36" t="n">
+        <v>3153</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -8439,6 +8659,12 @@
         <is>
           <t>2-s2.0-84925183152</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>3213</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -8637,6 +8863,12 @@
           <t>2-s2.0-84925059967</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>3489</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8854,6 +9086,12 @@
           <t>2-s2.0-84925135357</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>2613</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9075,6 +9313,12 @@
           <t>2-s2.0-85027922923</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>6311</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9290,6 +9534,12 @@
           <t>2-s2.0-84909592434</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>4700</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9505,6 +9755,12 @@
           <t>2-s2.0-84909602741</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>3740</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9719,6 +9975,12 @@
         <is>
           <t>2-s2.0-84909589891</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>6886</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -9931,6 +10193,12 @@
           <t>2-s2.0-84909644840</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>4939</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10147,6 +10415,12 @@
         <is>
           <t>2-s2.0-84909594956</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>13347</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -10361,6 +10635,12 @@
           <t>2-s2.0-84909589892</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>8009</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10576,6 +10856,12 @@
           <t>2-s2.0-84909589895</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>9334</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10799,6 +11085,12 @@
           <t>2-s2.0-84909589893</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>7927</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11016,6 +11308,12 @@
           <t>2-s2.0-84909589896</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>6480</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11235,6 +11533,12 @@
           <t>2-s2.0-84909589894</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>4559</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
